--- a/latest/alldocs/inv/plans/retirement_plan.xlsx
+++ b/latest/alldocs/inv/plans/retirement_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new\mine\latest\alldocs\inv\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341EFAEF-3C89-4BBE-A4C1-2B69DE23312B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49594F5B-A7CA-43CB-9DA4-3E1B9511B3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D4E42EE5-FCE9-7B4E-AF88-838BDF689D96}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D4E42EE5-FCE9-7B4E-AF88-838BDF689D96}"/>
   </bookViews>
   <sheets>
     <sheet name="Budgeting" sheetId="1" r:id="rId1"/>
@@ -1014,15 +1014,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,6 +1037,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1759,7 +1759,7 @@
                   <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4351,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657802AE-ED70-4B4F-87B9-9F8C866CF9FC}">
   <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.5" defaultRowHeight="22.5"/>
@@ -4545,7 +4545,9 @@
       <c r="B29" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="22">
+        <v>3000</v>
+      </c>
       <c r="D29" s="64" t="s">
         <v>50</v>
       </c>
@@ -4563,7 +4565,7 @@
       </c>
       <c r="C31" s="42">
         <f>SUM(C26:C30)</f>
-        <v>47000</v>
+        <v>50000</v>
       </c>
       <c r="D31" s="43" t="s">
         <v>51</v>
@@ -4636,7 +4638,7 @@
       </c>
       <c r="C39" s="46">
         <f>C5-C24-C31-C37</f>
-        <v>51000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="23" thickTop="1"/>
@@ -4669,7 +4671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40DF764-49AF-4049-835B-0F6FA554B4B9}">
   <dimension ref="A2:S63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="H4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4688,47 +4690,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="23" thickBot="1">
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="N3" s="69" t="s">
+      <c r="N3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
     </row>
     <row r="4" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
     </row>
     <row r="5" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
     </row>
     <row r="6" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
     </row>
     <row r="7" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -4828,20 +4830,20 @@
         <f>Budgeting!E24</f>
         <v>20000</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="72" t="s">
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="74"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N62" si="3">N9+1</f>
         <v>53</v>
@@ -5218,14 +5220,14 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
       <c r="N22" s="4">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -5278,19 +5280,19 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67" t="s">
+      <c r="E24" s="74"/>
+      <c r="F24" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
       <c r="N24" s="4">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -5317,19 +5319,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67" t="s">
+      <c r="E25" s="74"/>
+      <c r="F25" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
       <c r="N25" s="4">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -5356,19 +5358,19 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67" t="s">
+      <c r="E26" s="74"/>
+      <c r="F26" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
       <c r="N26" s="4">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -5395,19 +5397,19 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67" t="s">
+      <c r="E27" s="74"/>
+      <c r="F27" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
       <c r="N27" s="4">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -6347,11 +6349,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Cc9i9SyabxhS2Jf0JaKw3N0HMl7reqz3txktGRgfUOjXvOZcSZzjdan0kHFqIn2Flc78tnGn0rt7halMtLqkRQ==" saltValue="CzBaz4nUSC76inIqYkYVJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
-    <mergeCell ref="N3:S6"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="D22:I22"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
@@ -6360,6 +6357,11 @@
     <mergeCell ref="F25:L25"/>
     <mergeCell ref="F26:L26"/>
     <mergeCell ref="F27:L27"/>
+    <mergeCell ref="N3:S6"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="D22:I22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I10:M10" r:id="rId1" display="https://www.youtube.com/channel/UChBT5TlUeG68PKvJSg6MkqQ" xr:uid="{240578FA-0292-E049-B02D-0FE991783209}"/>
@@ -6378,8 +6380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7231C5CC-3BF8-2345-8B64-3B2C71194A7C}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
@@ -6409,7 +6411,7 @@
         <v>45</v>
       </c>
       <c r="M9" s="83">
-        <v>42000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -6482,15 +6484,15 @@
       </c>
       <c r="M15" s="57">
         <f>IF(K15&gt;'Retirement Goal Planning'!$B$8,"N A",M9*12)</f>
-        <v>504000</v>
+        <v>540000</v>
       </c>
       <c r="N15" s="57">
         <f>IF(K15&gt;'Retirement Goal Planning'!$B$8,"N A",(L15+M15)*$B$16)</f>
-        <v>75600</v>
+        <v>81000</v>
       </c>
       <c r="O15" s="57">
         <f>IF(K15&gt;'Retirement Goal Planning'!$B$8,"N A",L15+M15+N15)</f>
-        <v>579600</v>
+        <v>621000</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="33.5" thickTop="1" thickBot="1">
@@ -6510,19 +6512,19 @@
       </c>
       <c r="L16" s="57">
         <f>IF(K16&gt;'Retirement Goal Planning'!$B$8,"N A",O15)</f>
-        <v>579600</v>
+        <v>621000</v>
       </c>
       <c r="M16" s="57">
         <f>IF(K16&gt;'Retirement Goal Planning'!$B$8,"N A",M15*(1+$M$11))</f>
-        <v>529200</v>
+        <v>567000</v>
       </c>
       <c r="N16" s="57">
         <f>IF(K16&gt;'Retirement Goal Planning'!$B$8,"N A",(L16+M16)*$B$16)</f>
-        <v>166320</v>
+        <v>178200</v>
       </c>
       <c r="O16" s="57">
         <f>IF(K16&gt;'Retirement Goal Planning'!$B$8,"N A",L16+M16+N16)</f>
-        <v>1275120</v>
+        <v>1366200</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="33.5" thickTop="1" thickBot="1">
@@ -6539,19 +6541,19 @@
       </c>
       <c r="L17" s="57">
         <f>IF(K17&gt;'Retirement Goal Planning'!$B$8,"N A",O16)</f>
-        <v>1275120</v>
+        <v>1366200</v>
       </c>
       <c r="M17" s="57">
         <f>IF(K17&gt;'Retirement Goal Planning'!$B$8,"N A",M16*(1+$M$11))</f>
-        <v>555660</v>
+        <v>595350</v>
       </c>
       <c r="N17" s="57">
         <f>IF(K17&gt;'Retirement Goal Planning'!$B$8,"N A",(L17+M17)*$B$16)</f>
-        <v>274617</v>
+        <v>294232.5</v>
       </c>
       <c r="O17" s="57">
         <f>IF(K17&gt;'Retirement Goal Planning'!$B$8,"N A",L17+M17+N17)</f>
-        <v>2105397</v>
+        <v>2255782.5</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6561,19 +6563,19 @@
       </c>
       <c r="L18" s="57">
         <f>IF(K18&gt;'Retirement Goal Planning'!$B$8,"N A",O17)</f>
-        <v>2105397</v>
+        <v>2255782.5</v>
       </c>
       <c r="M18" s="57">
         <f>IF(K18&gt;'Retirement Goal Planning'!$B$8,"N A",M17*(1+$M$11))</f>
-        <v>583443</v>
+        <v>625117.5</v>
       </c>
       <c r="N18" s="57">
         <f>IF(K18&gt;'Retirement Goal Planning'!$B$8,"N A",(L18+M18)*$B$16)</f>
-        <v>403326</v>
+        <v>432135</v>
       </c>
       <c r="O18" s="57">
         <f>IF(K18&gt;'Retirement Goal Planning'!$B$8,"N A",L18+M18+N18)</f>
-        <v>3092166</v>
+        <v>3313035</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6587,19 +6589,19 @@
       </c>
       <c r="L19" s="57">
         <f>IF(K19&gt;'Retirement Goal Planning'!$B$8,"N A",O18)</f>
-        <v>3092166</v>
+        <v>3313035</v>
       </c>
       <c r="M19" s="57">
         <f>IF(K19&gt;'Retirement Goal Planning'!$B$8,"N A",M18*(1+$M$11))</f>
-        <v>612615.15</v>
+        <v>656373.375</v>
       </c>
       <c r="N19" s="57">
         <f>IF(K19&gt;'Retirement Goal Planning'!$B$8,"N A",(L19+M19)*$B$16)</f>
-        <v>555717.17249999999</v>
+        <v>595411.25624999998</v>
       </c>
       <c r="O19" s="57">
         <f>IF(K19&gt;'Retirement Goal Planning'!$B$8,"N A",L19+M19+N19)</f>
-        <v>4260498.3224999998</v>
+        <v>4564819.6312499996</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6611,19 +6613,19 @@
       </c>
       <c r="L20" s="57">
         <f>IF(K20&gt;'Retirement Goal Planning'!$B$8,"N A",O19)</f>
-        <v>4260498.3224999998</v>
+        <v>4564819.6312499996</v>
       </c>
       <c r="M20" s="57">
         <f>IF(K20&gt;'Retirement Goal Planning'!$B$8,"N A",M19*(1+$M$11))</f>
-        <v>643245.90750000009</v>
+        <v>689192.04375000007</v>
       </c>
       <c r="N20" s="57">
         <f>IF(K20&gt;'Retirement Goal Planning'!$B$8,"N A",(L20+M20)*$B$16)</f>
-        <v>735561.63449999993</v>
+        <v>788101.75124999997</v>
       </c>
       <c r="O20" s="57">
         <f>IF(K20&gt;'Retirement Goal Planning'!$B$8,"N A",L20+M20+N20)</f>
-        <v>5639305.8644999992</v>
+        <v>6042113.4262499996</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6633,19 +6635,19 @@
       </c>
       <c r="L21" s="57">
         <f>IF(K21&gt;'Retirement Goal Planning'!$B$8,"N A",O20)</f>
-        <v>5639305.8644999992</v>
+        <v>6042113.4262499996</v>
       </c>
       <c r="M21" s="57">
         <f>IF(K21&gt;'Retirement Goal Planning'!$B$8,"N A",M20*(1+$M$11))</f>
-        <v>675408.20287500008</v>
+        <v>723651.64593750006</v>
       </c>
       <c r="N21" s="57">
         <f>IF(K21&gt;'Retirement Goal Planning'!$B$8,"N A",(L21+M21)*$B$16)</f>
-        <v>947207.11010624992</v>
+        <v>1014864.7608281249</v>
       </c>
       <c r="O21" s="57">
         <f>IF(K21&gt;'Retirement Goal Planning'!$B$8,"N A",L21+M21+N21)</f>
-        <v>7261921.1774812499</v>
+        <v>7780629.8330156254</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="34.5" thickTop="1" thickBot="1">
@@ -6661,19 +6663,19 @@
       </c>
       <c r="L22" s="57">
         <f>IF(K22&gt;'Retirement Goal Planning'!$B$8,"N A",O21)</f>
-        <v>7261921.1774812499</v>
+        <v>7780629.8330156254</v>
       </c>
       <c r="M22" s="57">
         <f>IF(K22&gt;'Retirement Goal Planning'!$B$8,"N A",M21*(1+$M$11))</f>
-        <v>709178.6130187501</v>
+        <v>759834.22823437513</v>
       </c>
       <c r="N22" s="57">
         <f>IF(K22&gt;'Retirement Goal Planning'!$B$8,"N A",(L22+M22)*$B$16)</f>
-        <v>1195664.9685750001</v>
+        <v>1281069.6091875001</v>
       </c>
       <c r="O22" s="57">
         <f>IF(K22&gt;'Retirement Goal Planning'!$B$8,"N A",L22+M22+N22)</f>
-        <v>9166764.7590750009</v>
+        <v>9821533.6704375017</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="34.5" thickTop="1" thickBot="1">
@@ -6689,19 +6691,19 @@
       </c>
       <c r="L23" s="57">
         <f>IF(K23&gt;'Retirement Goal Planning'!$B$8,"N A",O22)</f>
-        <v>9166764.7590750009</v>
+        <v>9821533.6704375017</v>
       </c>
       <c r="M23" s="57">
         <f>IF(K23&gt;'Retirement Goal Planning'!$B$8,"N A",M22*(1+$M$11))</f>
-        <v>744637.54366968758</v>
+        <v>797825.93964609387</v>
       </c>
       <c r="N23" s="57">
         <f>IF(K23&gt;'Retirement Goal Planning'!$B$8,"N A",(L23+M23)*$B$16)</f>
-        <v>1486710.3454117032</v>
+        <v>1592903.9415125393</v>
       </c>
       <c r="O23" s="57">
         <f>IF(K23&gt;'Retirement Goal Planning'!$B$8,"N A",L23+M23+N23)</f>
-        <v>11398112.648156391</v>
+        <v>12212263.551596135</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="34.5" thickTop="1" thickBot="1">
@@ -6717,19 +6719,19 @@
       </c>
       <c r="L24" s="57">
         <f>IF(K24&gt;'Retirement Goal Planning'!$B$8,"N A",O23)</f>
-        <v>11398112.648156391</v>
+        <v>12212263.551596135</v>
       </c>
       <c r="M24" s="57">
         <f>IF(K24&gt;'Retirement Goal Planning'!$B$8,"N A",M23*(1+$M$11))</f>
-        <v>781869.42085317196</v>
+        <v>837717.23662839865</v>
       </c>
       <c r="N24" s="57">
         <f>IF(K24&gt;'Retirement Goal Planning'!$B$8,"N A",(L24+M24)*$B$16)</f>
-        <v>1826997.3103514344</v>
+        <v>1957497.1182336798</v>
       </c>
       <c r="O24" s="57">
         <f>IF(K24&gt;'Retirement Goal Planning'!$B$8,"N A",L24+M24+N24)</f>
-        <v>14006979.379360998</v>
+        <v>15007477.906458214</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6739,19 +6741,19 @@
       </c>
       <c r="L25" s="57">
         <f>IF(K25&gt;'Retirement Goal Planning'!$B$8,"N A",O24)</f>
-        <v>14006979.379360998</v>
+        <v>15007477.906458214</v>
       </c>
       <c r="M25" s="57">
         <f>IF(K25&gt;'Retirement Goal Planning'!$B$8,"N A",M24*(1+$M$11))</f>
-        <v>820962.89189583063</v>
+        <v>879603.09845981863</v>
       </c>
       <c r="N25" s="57">
         <f>IF(K25&gt;'Retirement Goal Planning'!$B$8,"N A",(L25+M25)*$B$16)</f>
-        <v>2224191.3406885243</v>
+        <v>2383062.1507377047</v>
       </c>
       <c r="O25" s="57">
         <f>IF(K25&gt;'Retirement Goal Planning'!$B$8,"N A",L25+M25+N25)</f>
-        <v>17052133.611945353</v>
+        <v>18270143.155655738</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6761,19 +6763,19 @@
       </c>
       <c r="L26" s="57">
         <f>IF(K26&gt;'Retirement Goal Planning'!$B$8,"N A",O25)</f>
-        <v>17052133.611945353</v>
+        <v>18270143.155655738</v>
       </c>
       <c r="M26" s="57">
         <f>IF(K26&gt;'Retirement Goal Planning'!$B$8,"N A",M25*(1+$M$11))</f>
-        <v>862011.03649062221</v>
+        <v>923583.25338280958</v>
       </c>
       <c r="N26" s="57">
         <f>IF(K26&gt;'Retirement Goal Planning'!$B$8,"N A",(L26+M26)*$B$16)</f>
-        <v>2687121.6972653964</v>
+        <v>2879058.9613557821</v>
       </c>
       <c r="O26" s="57">
         <f>IF(K26&gt;'Retirement Goal Planning'!$B$8,"N A",L26+M26+N26)</f>
-        <v>20601266.345701374</v>
+        <v>22072785.37039433</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6783,19 +6785,19 @@
       </c>
       <c r="L27" s="57">
         <f>IF(K27&gt;'Retirement Goal Planning'!$B$8,"N A",O26)</f>
-        <v>20601266.345701374</v>
+        <v>22072785.37039433</v>
       </c>
       <c r="M27" s="57">
         <f>IF(K27&gt;'Retirement Goal Planning'!$B$8,"N A",M26*(1+$M$11))</f>
-        <v>905111.58831515338</v>
+        <v>969762.41605195007</v>
       </c>
       <c r="N27" s="57">
         <f>IF(K27&gt;'Retirement Goal Planning'!$B$8,"N A",(L27+M27)*$B$16)</f>
-        <v>3225956.690102479</v>
+        <v>3456382.1679669418</v>
       </c>
       <c r="O27" s="57">
         <f>IF(K27&gt;'Retirement Goal Planning'!$B$8,"N A",L27+M27+N27)</f>
-        <v>24732334.624119006</v>
+        <v>26498929.954413224</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6805,19 +6807,19 @@
       </c>
       <c r="L28" s="57">
         <f>IF(K28&gt;'Retirement Goal Planning'!$B$8,"N A",O27)</f>
-        <v>24732334.624119006</v>
+        <v>26498929.954413224</v>
       </c>
       <c r="M28" s="57">
         <f>IF(K28&gt;'Retirement Goal Planning'!$B$8,"N A",M27*(1+$M$11))</f>
-        <v>950367.16773091105</v>
+        <v>1018250.5368545476</v>
       </c>
       <c r="N28" s="57">
         <f>IF(K28&gt;'Retirement Goal Planning'!$B$8,"N A",(L28+M28)*$B$16)</f>
-        <v>3852405.2687774878</v>
+        <v>4127577.0736901653</v>
       </c>
       <c r="O28" s="57">
         <f>IF(K28&gt;'Retirement Goal Planning'!$B$8,"N A",L28+M28+N28)</f>
-        <v>29535107.060627408</v>
+        <v>31644757.564957935</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6827,19 +6829,19 @@
       </c>
       <c r="L29" s="57">
         <f>IF(K29&gt;'Retirement Goal Planning'!$B$8,"N A",O28)</f>
-        <v>29535107.060627408</v>
+        <v>31644757.564957935</v>
       </c>
       <c r="M29" s="57">
         <f>IF(K29&gt;'Retirement Goal Planning'!$B$8,"N A",M28*(1+$M$11))</f>
-        <v>997885.52611745661</v>
+        <v>1069163.063697275</v>
       </c>
       <c r="N29" s="57">
         <f>IF(K29&gt;'Retirement Goal Planning'!$B$8,"N A",(L29+M29)*$B$16)</f>
-        <v>4579948.8880117293</v>
+        <v>4907088.0942982817</v>
       </c>
       <c r="O29" s="57">
         <f>IF(K29&gt;'Retirement Goal Planning'!$B$8,"N A",L29+M29+N29)</f>
-        <v>35112941.474756591</v>
+        <v>37621008.722953491</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6849,19 +6851,19 @@
       </c>
       <c r="L30" s="57">
         <f>IF(K30&gt;'Retirement Goal Planning'!$B$8,"N A",O29)</f>
-        <v>35112941.474756591</v>
+        <v>37621008.722953491</v>
       </c>
       <c r="M30" s="57">
         <f>IF(K30&gt;'Retirement Goal Planning'!$B$8,"N A",M29*(1+$M$11))</f>
-        <v>1047779.8024233294</v>
+        <v>1122621.2168821387</v>
       </c>
       <c r="N30" s="57">
         <f>IF(K30&gt;'Retirement Goal Planning'!$B$8,"N A",(L30+M30)*$B$16)</f>
-        <v>5424108.1915769875</v>
+        <v>5811544.4909753446</v>
       </c>
       <c r="O30" s="57">
         <f>IF(K30&gt;'Retirement Goal Planning'!$B$8,"N A",L30+M30+N30)</f>
-        <v>41584829.468756907</v>
+        <v>44555174.430810973</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6871,19 +6873,19 @@
       </c>
       <c r="L31" s="57">
         <f>IF(K31&gt;'Retirement Goal Planning'!$B$8,"N A",O30)</f>
-        <v>41584829.468756907</v>
+        <v>44555174.430810973</v>
       </c>
       <c r="M31" s="57">
         <f>IF(K31&gt;'Retirement Goal Planning'!$B$8,"N A",M30*(1+$M$11))</f>
-        <v>1100168.792544496</v>
+        <v>1178752.2777262458</v>
       </c>
       <c r="N31" s="57">
         <f>IF(K31&gt;'Retirement Goal Planning'!$B$8,"N A",(L31+M31)*$B$16)</f>
-        <v>6402749.7391952109</v>
+        <v>6860089.0062805833</v>
       </c>
       <c r="O31" s="57">
         <f>IF(K31&gt;'Retirement Goal Planning'!$B$8,"N A",L31+M31+N31)</f>
-        <v>49087748.000496618</v>
+        <v>52594015.714817807</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6893,19 +6895,19 @@
       </c>
       <c r="L32" s="57">
         <f>IF(K32&gt;'Retirement Goal Planning'!$B$8,"N A",O31)</f>
-        <v>49087748.000496618</v>
+        <v>52594015.714817807</v>
       </c>
       <c r="M32" s="57">
         <f>IF(K32&gt;'Retirement Goal Planning'!$B$8,"N A",M31*(1+$M$11))</f>
-        <v>1155177.2321717208</v>
+        <v>1237689.8916125582</v>
       </c>
       <c r="N32" s="57">
         <f>IF(K32&gt;'Retirement Goal Planning'!$B$8,"N A",(L32+M32)*$B$16)</f>
-        <v>7536438.7849002508</v>
+        <v>8074755.8409645548</v>
       </c>
       <c r="O32" s="57">
         <f>IF(K32&gt;'Retirement Goal Planning'!$B$8,"N A",L32+M32+N32)</f>
-        <v>57779364.017568588</v>
+        <v>61906461.447394922</v>
       </c>
     </row>
     <row r="33" spans="11:15" ht="26" thickTop="1" thickBot="1">

--- a/latest/alldocs/inv/plans/retirement_plan.xlsx
+++ b/latest/alldocs/inv/plans/retirement_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new\mine\latest\alldocs\inv\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49594F5B-A7CA-43CB-9DA4-3E1B9511B3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFDEDD3-FDE7-4E56-B81D-EC12DDCC7ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D4E42EE5-FCE9-7B4E-AF88-838BDF689D96}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D4E42EE5-FCE9-7B4E-AF88-838BDF689D96}"/>
   </bookViews>
   <sheets>
     <sheet name="Budgeting" sheetId="1" r:id="rId1"/>
@@ -1014,6 +1014,15 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,15 +1046,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4351,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657802AE-ED70-4B4F-87B9-9F8C866CF9FC}">
   <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.5" defaultRowHeight="22.5"/>
@@ -4671,7 +4671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40DF764-49AF-4049-835B-0F6FA554B4B9}">
   <dimension ref="A2:S63"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="H5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4690,47 +4690,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="23" thickBot="1">
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
     </row>
     <row r="4" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
     </row>
     <row r="5" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
     </row>
     <row r="6" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
     </row>
     <row r="7" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
       <c r="A7" s="7" t="s">
@@ -4830,20 +4830,20 @@
         <f>Budgeting!E24</f>
         <v>20000</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69" t="s">
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="74"/>
       <c r="N10" s="4">
         <f t="shared" ref="N10:N62" si="3">N9+1</f>
         <v>53</v>
@@ -5220,14 +5220,14 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
       <c r="N22" s="4">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -5280,19 +5280,19 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75" t="s">
+      <c r="E24" s="66"/>
+      <c r="F24" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
       <c r="N24" s="4">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -5319,19 +5319,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="74"/>
-      <c r="F25" s="75" t="s">
+      <c r="E25" s="66"/>
+      <c r="F25" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
       <c r="N25" s="4">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -5358,19 +5358,19 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
       <c r="N26" s="4">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -5397,19 +5397,19 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="23.5" thickTop="1" thickBot="1">
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75" t="s">
+      <c r="E27" s="66"/>
+      <c r="F27" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
       <c r="N27" s="4">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -6349,6 +6349,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Cc9i9SyabxhS2Jf0JaKw3N0HMl7reqz3txktGRgfUOjXvOZcSZzjdan0kHFqIn2Flc78tnGn0rt7halMtLqkRQ==" saltValue="CzBaz4nUSC76inIqYkYVJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="N3:S6"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="D22:I22"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
@@ -6357,11 +6362,6 @@
     <mergeCell ref="F25:L25"/>
     <mergeCell ref="F26:L26"/>
     <mergeCell ref="F27:L27"/>
-    <mergeCell ref="N3:S6"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="D22:I22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I10:M10" r:id="rId1" display="https://www.youtube.com/channel/UChBT5TlUeG68PKvJSg6MkqQ" xr:uid="{240578FA-0292-E049-B02D-0FE991783209}"/>
@@ -6380,8 +6380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7231C5CC-3BF8-2345-8B64-3B2C71194A7C}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="C9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
@@ -6411,7 +6411,7 @@
         <v>45</v>
       </c>
       <c r="M9" s="83">
-        <v>45000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -6484,15 +6484,15 @@
       </c>
       <c r="M15" s="57">
         <f>IF(K15&gt;'Retirement Goal Planning'!$B$8,"N A",M9*12)</f>
-        <v>540000</v>
+        <v>840000</v>
       </c>
       <c r="N15" s="57">
         <f>IF(K15&gt;'Retirement Goal Planning'!$B$8,"N A",(L15+M15)*$B$16)</f>
-        <v>81000</v>
+        <v>126000</v>
       </c>
       <c r="O15" s="57">
         <f>IF(K15&gt;'Retirement Goal Planning'!$B$8,"N A",L15+M15+N15)</f>
-        <v>621000</v>
+        <v>966000</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="33.5" thickTop="1" thickBot="1">
@@ -6512,19 +6512,19 @@
       </c>
       <c r="L16" s="57">
         <f>IF(K16&gt;'Retirement Goal Planning'!$B$8,"N A",O15)</f>
-        <v>621000</v>
+        <v>966000</v>
       </c>
       <c r="M16" s="57">
         <f>IF(K16&gt;'Retirement Goal Planning'!$B$8,"N A",M15*(1+$M$11))</f>
-        <v>567000</v>
+        <v>882000</v>
       </c>
       <c r="N16" s="57">
         <f>IF(K16&gt;'Retirement Goal Planning'!$B$8,"N A",(L16+M16)*$B$16)</f>
-        <v>178200</v>
+        <v>277200</v>
       </c>
       <c r="O16" s="57">
         <f>IF(K16&gt;'Retirement Goal Planning'!$B$8,"N A",L16+M16+N16)</f>
-        <v>1366200</v>
+        <v>2125200</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="33.5" thickTop="1" thickBot="1">
@@ -6541,19 +6541,19 @@
       </c>
       <c r="L17" s="57">
         <f>IF(K17&gt;'Retirement Goal Planning'!$B$8,"N A",O16)</f>
-        <v>1366200</v>
+        <v>2125200</v>
       </c>
       <c r="M17" s="57">
         <f>IF(K17&gt;'Retirement Goal Planning'!$B$8,"N A",M16*(1+$M$11))</f>
-        <v>595350</v>
+        <v>926100</v>
       </c>
       <c r="N17" s="57">
         <f>IF(K17&gt;'Retirement Goal Planning'!$B$8,"N A",(L17+M17)*$B$16)</f>
-        <v>294232.5</v>
+        <v>457695</v>
       </c>
       <c r="O17" s="57">
         <f>IF(K17&gt;'Retirement Goal Planning'!$B$8,"N A",L17+M17+N17)</f>
-        <v>2255782.5</v>
+        <v>3508995</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6563,19 +6563,19 @@
       </c>
       <c r="L18" s="57">
         <f>IF(K18&gt;'Retirement Goal Planning'!$B$8,"N A",O17)</f>
-        <v>2255782.5</v>
+        <v>3508995</v>
       </c>
       <c r="M18" s="57">
         <f>IF(K18&gt;'Retirement Goal Planning'!$B$8,"N A",M17*(1+$M$11))</f>
-        <v>625117.5</v>
+        <v>972405</v>
       </c>
       <c r="N18" s="57">
         <f>IF(K18&gt;'Retirement Goal Planning'!$B$8,"N A",(L18+M18)*$B$16)</f>
-        <v>432135</v>
+        <v>672210</v>
       </c>
       <c r="O18" s="57">
         <f>IF(K18&gt;'Retirement Goal Planning'!$B$8,"N A",L18+M18+N18)</f>
-        <v>3313035</v>
+        <v>5153610</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6589,19 +6589,19 @@
       </c>
       <c r="L19" s="57">
         <f>IF(K19&gt;'Retirement Goal Planning'!$B$8,"N A",O18)</f>
-        <v>3313035</v>
+        <v>5153610</v>
       </c>
       <c r="M19" s="57">
         <f>IF(K19&gt;'Retirement Goal Planning'!$B$8,"N A",M18*(1+$M$11))</f>
-        <v>656373.375</v>
+        <v>1021025.25</v>
       </c>
       <c r="N19" s="57">
         <f>IF(K19&gt;'Retirement Goal Planning'!$B$8,"N A",(L19+M19)*$B$16)</f>
-        <v>595411.25624999998</v>
+        <v>926195.28749999998</v>
       </c>
       <c r="O19" s="57">
         <f>IF(K19&gt;'Retirement Goal Planning'!$B$8,"N A",L19+M19+N19)</f>
-        <v>4564819.6312499996</v>
+        <v>7100830.5374999996</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6613,19 +6613,19 @@
       </c>
       <c r="L20" s="57">
         <f>IF(K20&gt;'Retirement Goal Planning'!$B$8,"N A",O19)</f>
-        <v>4564819.6312499996</v>
+        <v>7100830.5374999996</v>
       </c>
       <c r="M20" s="57">
         <f>IF(K20&gt;'Retirement Goal Planning'!$B$8,"N A",M19*(1+$M$11))</f>
-        <v>689192.04375000007</v>
+        <v>1072076.5125</v>
       </c>
       <c r="N20" s="57">
         <f>IF(K20&gt;'Retirement Goal Planning'!$B$8,"N A",(L20+M20)*$B$16)</f>
-        <v>788101.75124999997</v>
+        <v>1225936.0574999999</v>
       </c>
       <c r="O20" s="57">
         <f>IF(K20&gt;'Retirement Goal Planning'!$B$8,"N A",L20+M20+N20)</f>
-        <v>6042113.4262499996</v>
+        <v>9398843.1074999999</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6635,19 +6635,19 @@
       </c>
       <c r="L21" s="57">
         <f>IF(K21&gt;'Retirement Goal Planning'!$B$8,"N A",O20)</f>
-        <v>6042113.4262499996</v>
+        <v>9398843.1074999999</v>
       </c>
       <c r="M21" s="57">
         <f>IF(K21&gt;'Retirement Goal Planning'!$B$8,"N A",M20*(1+$M$11))</f>
-        <v>723651.64593750006</v>
+        <v>1125680.338125</v>
       </c>
       <c r="N21" s="57">
         <f>IF(K21&gt;'Retirement Goal Planning'!$B$8,"N A",(L21+M21)*$B$16)</f>
-        <v>1014864.7608281249</v>
+        <v>1578678.5168437499</v>
       </c>
       <c r="O21" s="57">
         <f>IF(K21&gt;'Retirement Goal Planning'!$B$8,"N A",L21+M21+N21)</f>
-        <v>7780629.8330156254</v>
+        <v>12103201.962468749</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="34.5" thickTop="1" thickBot="1">
@@ -6663,19 +6663,19 @@
       </c>
       <c r="L22" s="57">
         <f>IF(K22&gt;'Retirement Goal Planning'!$B$8,"N A",O21)</f>
-        <v>7780629.8330156254</v>
+        <v>12103201.962468749</v>
       </c>
       <c r="M22" s="57">
         <f>IF(K22&gt;'Retirement Goal Planning'!$B$8,"N A",M21*(1+$M$11))</f>
-        <v>759834.22823437513</v>
+        <v>1181964.35503125</v>
       </c>
       <c r="N22" s="57">
         <f>IF(K22&gt;'Retirement Goal Planning'!$B$8,"N A",(L22+M22)*$B$16)</f>
-        <v>1281069.6091875001</v>
+        <v>1992774.9476249998</v>
       </c>
       <c r="O22" s="57">
         <f>IF(K22&gt;'Retirement Goal Planning'!$B$8,"N A",L22+M22+N22)</f>
-        <v>9821533.6704375017</v>
+        <v>15277941.265124999</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="34.5" thickTop="1" thickBot="1">
@@ -6691,19 +6691,19 @@
       </c>
       <c r="L23" s="57">
         <f>IF(K23&gt;'Retirement Goal Planning'!$B$8,"N A",O22)</f>
-        <v>9821533.6704375017</v>
+        <v>15277941.265124999</v>
       </c>
       <c r="M23" s="57">
         <f>IF(K23&gt;'Retirement Goal Planning'!$B$8,"N A",M22*(1+$M$11))</f>
-        <v>797825.93964609387</v>
+        <v>1241062.5727828126</v>
       </c>
       <c r="N23" s="57">
         <f>IF(K23&gt;'Retirement Goal Planning'!$B$8,"N A",(L23+M23)*$B$16)</f>
-        <v>1592903.9415125393</v>
+        <v>2477850.5756861717</v>
       </c>
       <c r="O23" s="57">
         <f>IF(K23&gt;'Retirement Goal Planning'!$B$8,"N A",L23+M23+N23)</f>
-        <v>12212263.551596135</v>
+        <v>18996854.413593985</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="34.5" thickTop="1" thickBot="1">
@@ -6719,19 +6719,19 @@
       </c>
       <c r="L24" s="57">
         <f>IF(K24&gt;'Retirement Goal Planning'!$B$8,"N A",O23)</f>
-        <v>12212263.551596135</v>
+        <v>18996854.413593985</v>
       </c>
       <c r="M24" s="57">
         <f>IF(K24&gt;'Retirement Goal Planning'!$B$8,"N A",M23*(1+$M$11))</f>
-        <v>837717.23662839865</v>
+        <v>1303115.7014219533</v>
       </c>
       <c r="N24" s="57">
         <f>IF(K24&gt;'Retirement Goal Planning'!$B$8,"N A",(L24+M24)*$B$16)</f>
-        <v>1957497.1182336798</v>
+        <v>3044995.5172523907</v>
       </c>
       <c r="O24" s="57">
         <f>IF(K24&gt;'Retirement Goal Planning'!$B$8,"N A",L24+M24+N24)</f>
-        <v>15007477.906458214</v>
+        <v>23344965.632268328</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6741,19 +6741,19 @@
       </c>
       <c r="L25" s="57">
         <f>IF(K25&gt;'Retirement Goal Planning'!$B$8,"N A",O24)</f>
-        <v>15007477.906458214</v>
+        <v>23344965.632268328</v>
       </c>
       <c r="M25" s="57">
         <f>IF(K25&gt;'Retirement Goal Planning'!$B$8,"N A",M24*(1+$M$11))</f>
-        <v>879603.09845981863</v>
+        <v>1368271.4864930511</v>
       </c>
       <c r="N25" s="57">
         <f>IF(K25&gt;'Retirement Goal Planning'!$B$8,"N A",(L25+M25)*$B$16)</f>
-        <v>2383062.1507377047</v>
+        <v>3706985.5678142067</v>
       </c>
       <c r="O25" s="57">
         <f>IF(K25&gt;'Retirement Goal Planning'!$B$8,"N A",L25+M25+N25)</f>
-        <v>18270143.155655738</v>
+        <v>28420222.686575584</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6763,19 +6763,19 @@
       </c>
       <c r="L26" s="57">
         <f>IF(K26&gt;'Retirement Goal Planning'!$B$8,"N A",O25)</f>
-        <v>18270143.155655738</v>
+        <v>28420222.686575584</v>
       </c>
       <c r="M26" s="57">
         <f>IF(K26&gt;'Retirement Goal Planning'!$B$8,"N A",M25*(1+$M$11))</f>
-        <v>923583.25338280958</v>
+        <v>1436685.0608177036</v>
       </c>
       <c r="N26" s="57">
         <f>IF(K26&gt;'Retirement Goal Planning'!$B$8,"N A",(L26+M26)*$B$16)</f>
-        <v>2879058.9613557821</v>
+        <v>4478536.1621089932</v>
       </c>
       <c r="O26" s="57">
         <f>IF(K26&gt;'Retirement Goal Planning'!$B$8,"N A",L26+M26+N26)</f>
-        <v>22072785.37039433</v>
+        <v>34335443.909502283</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6785,19 +6785,19 @@
       </c>
       <c r="L27" s="57">
         <f>IF(K27&gt;'Retirement Goal Planning'!$B$8,"N A",O26)</f>
-        <v>22072785.37039433</v>
+        <v>34335443.909502283</v>
       </c>
       <c r="M27" s="57">
         <f>IF(K27&gt;'Retirement Goal Planning'!$B$8,"N A",M26*(1+$M$11))</f>
-        <v>969762.41605195007</v>
+        <v>1508519.3138585889</v>
       </c>
       <c r="N27" s="57">
         <f>IF(K27&gt;'Retirement Goal Planning'!$B$8,"N A",(L27+M27)*$B$16)</f>
-        <v>3456382.1679669418</v>
+        <v>5376594.4835041305</v>
       </c>
       <c r="O27" s="57">
         <f>IF(K27&gt;'Retirement Goal Planning'!$B$8,"N A",L27+M27+N27)</f>
-        <v>26498929.954413224</v>
+        <v>41220557.706865005</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6807,19 +6807,19 @@
       </c>
       <c r="L28" s="57">
         <f>IF(K28&gt;'Retirement Goal Planning'!$B$8,"N A",O27)</f>
-        <v>26498929.954413224</v>
+        <v>41220557.706865005</v>
       </c>
       <c r="M28" s="57">
         <f>IF(K28&gt;'Retirement Goal Planning'!$B$8,"N A",M27*(1+$M$11))</f>
-        <v>1018250.5368545476</v>
+        <v>1583945.2795515184</v>
       </c>
       <c r="N28" s="57">
         <f>IF(K28&gt;'Retirement Goal Planning'!$B$8,"N A",(L28+M28)*$B$16)</f>
-        <v>4127577.0736901653</v>
+        <v>6420675.4479624787</v>
       </c>
       <c r="O28" s="57">
         <f>IF(K28&gt;'Retirement Goal Planning'!$B$8,"N A",L28+M28+N28)</f>
-        <v>31644757.564957935</v>
+        <v>49225178.434379004</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6829,19 +6829,19 @@
       </c>
       <c r="L29" s="57">
         <f>IF(K29&gt;'Retirement Goal Planning'!$B$8,"N A",O28)</f>
-        <v>31644757.564957935</v>
+        <v>49225178.434379004</v>
       </c>
       <c r="M29" s="57">
         <f>IF(K29&gt;'Retirement Goal Planning'!$B$8,"N A",M28*(1+$M$11))</f>
-        <v>1069163.063697275</v>
+        <v>1663142.5435290944</v>
       </c>
       <c r="N29" s="57">
         <f>IF(K29&gt;'Retirement Goal Planning'!$B$8,"N A",(L29+M29)*$B$16)</f>
-        <v>4907088.0942982817</v>
+        <v>7633248.146686214</v>
       </c>
       <c r="O29" s="57">
         <f>IF(K29&gt;'Retirement Goal Planning'!$B$8,"N A",L29+M29+N29)</f>
-        <v>37621008.722953491</v>
+        <v>58521569.124594308</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6851,19 +6851,19 @@
       </c>
       <c r="L30" s="57">
         <f>IF(K30&gt;'Retirement Goal Planning'!$B$8,"N A",O29)</f>
-        <v>37621008.722953491</v>
+        <v>58521569.124594308</v>
       </c>
       <c r="M30" s="57">
         <f>IF(K30&gt;'Retirement Goal Planning'!$B$8,"N A",M29*(1+$M$11))</f>
-        <v>1122621.2168821387</v>
+        <v>1746299.6707055492</v>
       </c>
       <c r="N30" s="57">
         <f>IF(K30&gt;'Retirement Goal Planning'!$B$8,"N A",(L30+M30)*$B$16)</f>
-        <v>5811544.4909753446</v>
+        <v>9040180.3192949779</v>
       </c>
       <c r="O30" s="57">
         <f>IF(K30&gt;'Retirement Goal Planning'!$B$8,"N A",L30+M30+N30)</f>
-        <v>44555174.430810973</v>
+        <v>69308049.114594832</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6873,19 +6873,19 @@
       </c>
       <c r="L31" s="57">
         <f>IF(K31&gt;'Retirement Goal Planning'!$B$8,"N A",O30)</f>
-        <v>44555174.430810973</v>
+        <v>69308049.114594832</v>
       </c>
       <c r="M31" s="57">
         <f>IF(K31&gt;'Retirement Goal Planning'!$B$8,"N A",M30*(1+$M$11))</f>
-        <v>1178752.2777262458</v>
+        <v>1833614.6542408266</v>
       </c>
       <c r="N31" s="57">
         <f>IF(K31&gt;'Retirement Goal Planning'!$B$8,"N A",(L31+M31)*$B$16)</f>
-        <v>6860089.0062805833</v>
+        <v>10671249.56532535</v>
       </c>
       <c r="O31" s="57">
         <f>IF(K31&gt;'Retirement Goal Planning'!$B$8,"N A",L31+M31+N31)</f>
-        <v>52594015.714817807</v>
+        <v>81812913.334161013</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="26" thickTop="1" thickBot="1">
@@ -6895,19 +6895,19 @@
       </c>
       <c r="L32" s="57">
         <f>IF(K32&gt;'Retirement Goal Planning'!$B$8,"N A",O31)</f>
-        <v>52594015.714817807</v>
+        <v>81812913.334161013</v>
       </c>
       <c r="M32" s="57">
         <f>IF(K32&gt;'Retirement Goal Planning'!$B$8,"N A",M31*(1+$M$11))</f>
-        <v>1237689.8916125582</v>
+        <v>1925295.386952868</v>
       </c>
       <c r="N32" s="57">
         <f>IF(K32&gt;'Retirement Goal Planning'!$B$8,"N A",(L32+M32)*$B$16)</f>
-        <v>8074755.8409645548</v>
+        <v>12560731.308167081</v>
       </c>
       <c r="O32" s="57">
         <f>IF(K32&gt;'Retirement Goal Planning'!$B$8,"N A",L32+M32+N32)</f>
-        <v>61906461.447394922</v>
+        <v>96298940.029280961</v>
       </c>
     </row>
     <row r="33" spans="11:15" ht="26" thickTop="1" thickBot="1">
